--- a/figures_tables/Tcell/Tcell_CD8_ST7.xlsx
+++ b/figures_tables/Tcell/Tcell_CD8_ST7.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,11 +396,11 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.4621827415244856</v>
+        <v>0.462183</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="F2">
-        <v>4.480229577652484e-05</v>
+        <v>4.5e-05</v>
       </c>
     </row>
     <row r="3">
@@ -424,11 +424,11 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.484190216282455</v>
+        <v>0.48419</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -442,7 +442,7 @@
         </is>
       </c>
       <c r="F3">
-        <v>0.01559764596232027</v>
+        <v>0.015598</v>
       </c>
     </row>
     <row r="4">
@@ -452,11 +452,11 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3873861327378516</v>
+        <v>0.387386</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="F4">
-        <v>2.071863131725138e-06</v>
+        <v>2e-06</v>
       </c>
     </row>
     <row r="5">
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2089052849085936</v>
+        <v>0.208905</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -508,11 +508,11 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.3783088842263813</v>
+        <v>0.378309</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="F6">
-        <v>1.233209201423335e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -536,11 +536,11 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.4764951073768218</v>
+        <v>0.476495</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="F7">
-        <v>0.01116340735215982</v>
+        <v>0.011163</v>
       </c>
     </row>
     <row r="8">
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.3993822796289661</v>
+        <v>0.399382</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="F8">
-        <v>0.001074042986116575</v>
+        <v>0.001074</v>
       </c>
     </row>
     <row r="9">
@@ -592,11 +592,11 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.2153744335752794</v>
+        <v>0.215374</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="F9">
-        <v>8.659972738911392e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.3900239368879705</v>
+        <v>0.390024</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>0.0001308088770586302</v>
+        <v>0.000131</v>
       </c>
     </row>
     <row r="11">
@@ -648,11 +648,11 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.4519971564051276</v>
+        <v>0.451997</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="F11">
-        <v>5.995529997360194e-05</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="12">
@@ -676,11 +676,11 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.4314529246636565</v>
+        <v>0.431453</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="F12">
-        <v>0.003267601232751605</v>
+        <v>0.003268</v>
       </c>
     </row>
     <row r="13">
@@ -704,11 +704,11 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.5392688773657318</v>
+        <v>0.539269</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="F13">
-        <v>0.01368025125633709</v>
+        <v>0.01368</v>
       </c>
     </row>
     <row r="14">
@@ -732,11 +732,11 @@
         </is>
       </c>
       <c r="B14">
-        <v>1.810911027894341</v>
+        <v>1.810911</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="F14">
-        <v>0.003711702003183714</v>
+        <v>0.003712</v>
       </c>
     </row>
     <row r="15">
@@ -760,11 +760,11 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.2876658303372602</v>
+        <v>0.287666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="F15">
-        <v>0.00253875718214891</v>
+        <v>0.002539</v>
       </c>
     </row>
     <row r="16">
@@ -788,11 +788,11 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.2820054200654559</v>
+        <v>0.282005</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="F16">
-        <v>0.00435162710763648</v>
+        <v>0.004352</v>
       </c>
     </row>
     <row r="17">
@@ -816,11 +816,11 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.3128594639322484</v>
+        <v>0.312859</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="F17">
-        <v>4.000385772384707e-05</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="18">
@@ -844,11 +844,11 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.3067033176801995</v>
+        <v>0.306703</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="F18">
-        <v>0.0002038143833174022</v>
+        <v>0.000204</v>
       </c>
     </row>
     <row r="19">
@@ -872,11 +872,11 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.342036309228019</v>
+        <v>0.342036</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="F19">
-        <v>5.948044088521787e-05</v>
+        <v>5.9e-05</v>
       </c>
     </row>
     <row r="20">
@@ -900,11 +900,11 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.3353060492043851</v>
+        <v>0.335306</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="F20">
-        <v>0.00031527857330238</v>
+        <v>0.000315</v>
       </c>
     </row>
     <row r="21">
@@ -928,11 +928,11 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.344789268261583</v>
+        <v>0.344789</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="F21">
-        <v>0.0001376712001638358</v>
+        <v>0.000138</v>
       </c>
     </row>
     <row r="22">
@@ -956,11 +956,11 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.2312574260813758</v>
+        <v>0.231257</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="F22">
-        <v>1.508703725705551e-05</v>
+        <v>1.5e-05</v>
       </c>
     </row>
     <row r="23">
@@ -984,11 +984,11 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.3336983264703589</v>
+        <v>0.333698</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="F23">
-        <v>0.001129789107586432</v>
+        <v>0.00113</v>
       </c>
     </row>
     <row r="24">
@@ -1012,11 +1012,11 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.4119558137554229</v>
+        <v>0.411956</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="F24">
-        <v>0.002564470366233973</v>
+        <v>0.002564</v>
       </c>
     </row>
     <row r="25">
@@ -1040,11 +1040,11 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.4822512666501139</v>
+        <v>0.482251</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="F25">
-        <v>0.01891928989797453</v>
+        <v>0.018919</v>
       </c>
     </row>
     <row r="26">
@@ -1068,11 +1068,11 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.2716860699709102</v>
+        <v>0.271686</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="F26">
-        <v>3.579948115728371e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1096,11 +1096,11 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.1822255708839816</v>
+        <v>0.182226</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="F27">
-        <v>6.14827411204999e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1124,11 +1124,11 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.2629466611061084</v>
+        <v>0.262947</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="F28">
-        <v>1.239934597330183e-06</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="29">
@@ -1152,11 +1152,11 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.442342515384838</v>
+        <v>0.442343</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="F29">
-        <v>0.00354130552505505</v>
+        <v>0.003541</v>
       </c>
     </row>
     <row r="30">
@@ -1180,11 +1180,11 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.5633703605552698</v>
+        <v>0.56337</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="F30">
-        <v>0.0006908011077861875</v>
+        <v>0.000691</v>
       </c>
     </row>
     <row r="31">
@@ -1208,11 +1208,11 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.3778643696465211</v>
+        <v>0.377864</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="F31">
-        <v>8.211450203665649e-05</v>
+        <v>8.2e-05</v>
       </c>
     </row>
     <row r="32">
@@ -1236,11 +1236,11 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.5452482539499127</v>
+        <v>0.545248</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="F32">
-        <v>0.02848052188394568</v>
+        <v>0.028481</v>
       </c>
     </row>
     <row r="33">
@@ -1264,11 +1264,11 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.1932086188961984</v>
+        <v>0.193209</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="F33">
-        <v>1.531380799946191e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1292,11 +1292,11 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.2110007497684686</v>
+        <v>0.211001</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="F34">
-        <v>8.815210006396512e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1320,11 +1320,11 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.4892632853632952</v>
+        <v>0.489263</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="F35">
-        <v>0.04194261684157574</v>
+        <v>0.041943</v>
       </c>
     </row>
     <row r="36">
@@ -1348,11 +1348,11 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.5175072788790945</v>
+        <v>0.5175070000000001</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="F36">
-        <v>0.01134811298658944</v>
+        <v>0.011348</v>
       </c>
     </row>
     <row r="37">
@@ -1376,11 +1376,11 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.5366215254445168</v>
+        <v>0.536622</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="F37">
-        <v>0.04691895180864292</v>
+        <v>0.046919</v>
       </c>
     </row>
     <row r="38">
@@ -1404,11 +1404,11 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.2129548082285442</v>
+        <v>0.212955</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="F38">
-        <v>9.103828801926284e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1432,11 +1432,11 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.2325653195997635</v>
+        <v>0.232565</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="F39">
-        <v>6.061817714453355e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1460,11 +1460,11 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.4352560566044062</v>
+        <v>0.435256</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="F40">
-        <v>0.02393158434115505</v>
+        <v>0.023932</v>
       </c>
     </row>
     <row r="41">
@@ -1488,11 +1488,11 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.4115010878490404</v>
+        <v>0.411501</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="F41">
-        <v>0.001182912074597864</v>
+        <v>0.001183</v>
       </c>
     </row>
     <row r="42">
@@ -1516,11 +1516,11 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.4493952628134875</v>
+        <v>0.449395</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="F42">
-        <v>0.00391859419753815</v>
+        <v>0.003919</v>
       </c>
     </row>
     <row r="43">
@@ -1544,11 +1544,11 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.3968435818003023</v>
+        <v>0.396844</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="F43">
-        <v>0.001722565173626345</v>
+        <v>0.001723</v>
       </c>
     </row>
     <row r="44">
@@ -1572,11 +1572,11 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.4333879812352201</v>
+        <v>0.433388</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="F44">
-        <v>0.005448241589214753</v>
+        <v>0.005448</v>
       </c>
     </row>
     <row r="45">
@@ -1600,11 +1600,11 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.2344357045235335</v>
+        <v>0.234436</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="F45">
-        <v>0.009399064362702547</v>
+        <v>0.009398999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1628,11 +1628,11 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.3798674090965002</v>
+        <v>0.379867</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="F46">
-        <v>0.007588435785322312</v>
+        <v>0.007588</v>
       </c>
     </row>
     <row r="47">
@@ -1656,11 +1656,11 @@
         </is>
       </c>
       <c r="B47">
-        <v>4.387536701401182</v>
+        <v>4.387537</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1674,7 +1674,7 @@
         </is>
       </c>
       <c r="F47">
-        <v>0.03162484198600601</v>
+        <v>0.031625</v>
       </c>
     </row>
     <row r="48">
@@ -1684,11 +1684,11 @@
         </is>
       </c>
       <c r="B48">
-        <v>3.12396306389535</v>
+        <v>3.123963</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="F48">
-        <v>0.0001288994977733937</v>
+        <v>0.000129</v>
       </c>
     </row>
     <row r="49">
@@ -1712,11 +1712,11 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.2083121418370875</v>
+        <v>0.208312</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="F49">
-        <v>0.004176025958451568</v>
+        <v>0.004176</v>
       </c>
     </row>
     <row r="50">
@@ -1740,11 +1740,11 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.256203889772729</v>
+        <v>0.256204</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="F50">
-        <v>0.0001475852546526379</v>
+        <v>0.000148</v>
       </c>
     </row>
     <row r="51">
@@ -1768,11 +1768,11 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.4995474911049403</v>
+        <v>0.499547</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="F51">
-        <v>1.980335457962834e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="52">
@@ -1796,11 +1796,11 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.3064168638876747</v>
+        <v>0.306417</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="F52">
-        <v>8.662215389421135e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1824,11 +1824,11 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.5063341283538459</v>
+        <v>0.506334</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="F53">
-        <v>0.001282066095561696</v>
+        <v>0.001282</v>
       </c>
     </row>
     <row r="54">
@@ -1852,11 +1852,11 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.4250674157594513</v>
+        <v>0.425067</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="F54">
-        <v>0.005733667481330307</v>
+        <v>0.005734</v>
       </c>
     </row>
     <row r="55">
@@ -1880,11 +1880,11 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.4893890334077899</v>
+        <v>0.489389</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="F55">
-        <v>0.009830775085407195</v>
+        <v>0.009830999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1908,11 +1908,11 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.3158884333985705</v>
+        <v>0.315888</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F56">
-        <v>2.113099849543332e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1936,11 +1936,11 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.1937624446602356</v>
+        <v>0.193762</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="F57">
-        <v>4.004685472125402e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1964,11 +1964,11 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.3201799577216319</v>
+        <v>0.32018</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="F58">
-        <v>7.208055770591137e-06</v>
+        <v>7e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1992,11 +1992,11 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.455839326837245</v>
+        <v>0.455839</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="F59">
-        <v>0.009733397424671053</v>
+        <v>0.009733</v>
       </c>
     </row>
     <row r="60">
@@ -2020,11 +2020,11 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.395927230553163</v>
+        <v>0.395927</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="F60">
-        <v>4.351265534296989e-05</v>
+        <v>4.4e-05</v>
       </c>
     </row>
     <row r="61">
@@ -2048,11 +2048,11 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.4023328716363389</v>
+        <v>0.402333</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="F61">
-        <v>0.04839728926466857</v>
+        <v>0.048397</v>
       </c>
     </row>
     <row r="62">
@@ -2076,11 +2076,11 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.2746494851323281</v>
+        <v>0.274649</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="F62">
-        <v>0.0002789536839276074</v>
+        <v>0.000279</v>
       </c>
     </row>
     <row r="63">
@@ -2104,11 +2104,11 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.2815657239692673</v>
+        <v>0.281566</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="F63">
-        <v>0.0005420922133202444</v>
+        <v>0.0005419999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -2132,11 +2132,11 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.3872770731894938</v>
+        <v>0.387277</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="F64">
-        <v>0.00287436170152211</v>
+        <v>0.002874</v>
       </c>
     </row>
     <row r="65">
@@ -2160,11 +2160,11 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.2643717584458054</v>
+        <v>0.264372</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="F65">
-        <v>1.813697022567951e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2188,11 +2188,11 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.2710291829892078</v>
+        <v>0.271029</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="F66">
-        <v>1.03512406213202e-06</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="67">
@@ -2216,11 +2216,11 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.4195039752669407</v>
+        <v>0.419504</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="F67">
-        <v>0.002192745406936814</v>
+        <v>0.002193</v>
       </c>
     </row>
     <row r="68">
@@ -2244,11 +2244,11 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.2863712088684919</v>
+        <v>0.286371</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="F68">
-        <v>2.597258919045942e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2272,11 +2272,11 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.2935826248141771</v>
+        <v>0.293583</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="F69">
-        <v>1.415813336569371e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2300,11 +2300,11 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.6295501863711712</v>
+        <v>0.6295500000000001</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="F70">
-        <v>0.01240012293095571</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="71">
@@ -2328,11 +2328,11 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.5107553472181348</v>
+        <v>0.510755</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="F71">
-        <v>0.007868247430711461</v>
+        <v>0.007868</v>
       </c>
     </row>
     <row r="72">
@@ -2356,11 +2356,11 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.3342710079390459</v>
+        <v>0.334271</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="F72">
-        <v>7.955660574765488e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2384,11 +2384,11 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.5479536815317907</v>
+        <v>0.5479540000000001</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="F73">
-        <v>0.03372646470309615</v>
+        <v>0.033726</v>
       </c>
     </row>
     <row r="74">
@@ -2412,11 +2412,11 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.4464294765815131</v>
+        <v>0.446429</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="F74">
-        <v>0.04153507205894047</v>
+        <v>0.041535</v>
       </c>
     </row>
     <row r="75">
@@ -2440,11 +2440,11 @@
         </is>
       </c>
       <c r="B75">
-        <v>0.4445559368085369</v>
+        <v>0.444556</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="F75">
-        <v>0.01105349785092336</v>
+        <v>0.011053</v>
       </c>
     </row>
     <row r="76">
@@ -2468,11 +2468,11 @@
         </is>
       </c>
       <c r="B76">
-        <v>0.2909458743636237</v>
+        <v>0.290946</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="F76">
-        <v>5.030703209563114e-07</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="77">
@@ -2496,11 +2496,11 @@
         </is>
       </c>
       <c r="B77">
-        <v>0.530968007278082</v>
+        <v>0.530968</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2514,7 +2514,7 @@
         </is>
       </c>
       <c r="F77">
-        <v>0.009635636644758527</v>
+        <v>0.009636</v>
       </c>
     </row>
     <row r="78">
@@ -2524,11 +2524,11 @@
         </is>
       </c>
       <c r="B78">
-        <v>1.798024098060371</v>
+        <v>1.798024</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="F78">
-        <v>0.001588456436449892</v>
+        <v>0.001588</v>
       </c>
     </row>
     <row r="79">
@@ -2552,11 +2552,11 @@
         </is>
       </c>
       <c r="B79">
-        <v>2.206919515170422</v>
+        <v>2.20692</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="F79">
-        <v>0.01433685811579355</v>
+        <v>0.014204</v>
       </c>
     </row>
     <row r="80">
@@ -2580,11 +2580,11 @@
         </is>
       </c>
       <c r="B80">
-        <v>2.21622037282427</v>
+        <v>2.21622</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="F80">
-        <v>0.001505125562188847</v>
+        <v>0.001505</v>
       </c>
     </row>
     <row r="81">
@@ -2608,11 +2608,11 @@
         </is>
       </c>
       <c r="B81">
-        <v>3.386313437748611</v>
+        <v>3.386313</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="F81">
-        <v>1.210435085496897e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2636,11 +2636,11 @@
         </is>
       </c>
       <c r="B82">
-        <v>0.2347522993660132</v>
+        <v>0.234752</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2654,7 +2654,7 @@
         </is>
       </c>
       <c r="F82">
-        <v>0.009072464210267417</v>
+        <v>0.009072</v>
       </c>
     </row>
     <row r="83">
@@ -2664,11 +2664,11 @@
         </is>
       </c>
       <c r="B83">
-        <v>0.1862420430058367</v>
+        <v>0.186242</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="F83">
-        <v>0.001191517804690845</v>
+        <v>0.001192</v>
       </c>
     </row>
     <row r="84">
@@ -2692,11 +2692,11 @@
         </is>
       </c>
       <c r="B84">
-        <v>0.1781284568805115</v>
+        <v>0.178128</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="F84">
-        <v>0.000187396749990576</v>
+        <v>0.000187</v>
       </c>
     </row>
     <row r="85">
@@ -2720,11 +2720,11 @@
         </is>
       </c>
       <c r="B85">
-        <v>0.3912977868433986</v>
+        <v>0.391298</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="F85">
-        <v>0.02599706785368505</v>
+        <v>0.025997</v>
       </c>
     </row>
     <row r="86">
@@ -2748,11 +2748,11 @@
         </is>
       </c>
       <c r="B86">
-        <v>0.3900501659396712</v>
+        <v>0.39005</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="F86">
-        <v>0.03441731847209828</v>
+        <v>0.034418</v>
       </c>
     </row>
     <row r="87">
@@ -2776,11 +2776,11 @@
         </is>
       </c>
       <c r="B87">
-        <v>0.3730577319893534</v>
+        <v>0.373058</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="F87">
-        <v>0.003385608645345872</v>
+        <v>0.003386</v>
       </c>
     </row>
     <row r="88">
@@ -2804,11 +2804,11 @@
         </is>
       </c>
       <c r="B88">
-        <v>0.3327512583900956</v>
+        <v>0.332751</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="F88">
-        <v>2.753939035560204e-05</v>
+        <v>2.8e-05</v>
       </c>
     </row>
     <row r="89">
@@ -2832,11 +2832,11 @@
         </is>
       </c>
       <c r="B89">
-        <v>0.2322416037788256</v>
+        <v>0.232242</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="F89">
-        <v>1.884546920294383e-06</v>
+        <v>2e-06</v>
       </c>
     </row>
     <row r="90">
@@ -2860,11 +2860,11 @@
         </is>
       </c>
       <c r="B90">
-        <v>0.3670418465550692</v>
+        <v>0.367042</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="F90">
-        <v>0.001169761078104181</v>
+        <v>0.00117</v>
       </c>
     </row>
     <row r="91">
@@ -2888,11 +2888,11 @@
         </is>
       </c>
       <c r="B91">
-        <v>0.4716631131495057</v>
+        <v>0.471663</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="F91">
-        <v>0.03512308058255909</v>
+        <v>0.035123</v>
       </c>
     </row>
     <row r="92">
@@ -2916,11 +2916,11 @@
         </is>
       </c>
       <c r="B92">
-        <v>0.3077548578345621</v>
+        <v>0.307755</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="F92">
-        <v>1.766635200350919e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2944,11 +2944,11 @@
         </is>
       </c>
       <c r="B93">
-        <v>0.2147955265444327</v>
+        <v>0.214796</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F93">
-        <v>2.187103576023475e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2972,11 +2972,11 @@
         </is>
       </c>
       <c r="B94">
-        <v>0.3394695240294626</v>
+        <v>0.33947</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="F94">
-        <v>6.838313513435335e-05</v>
+        <v>6.8e-05</v>
       </c>
     </row>
     <row r="95">
@@ -3000,11 +3000,11 @@
         </is>
       </c>
       <c r="B95">
-        <v>0.4554003070330154</v>
+        <v>0.4554</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="F95">
-        <v>0.02776635376280212</v>
+        <v>0.027766</v>
       </c>
     </row>
     <row r="96">
@@ -3028,11 +3028,11 @@
         </is>
       </c>
       <c r="B96">
-        <v>0.4120330961695904</v>
+        <v>0.412033</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="F96">
-        <v>0.004234413440906359</v>
+        <v>0.004234</v>
       </c>
     </row>
     <row r="97">
@@ -3056,11 +3056,11 @@
         </is>
       </c>
       <c r="B97">
-        <v>0.4646685600135778</v>
+        <v>0.464669</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="F97">
-        <v>0.03589284481102961</v>
+        <v>0.035893</v>
       </c>
     </row>
     <row r="98">
@@ -3084,11 +3084,11 @@
         </is>
       </c>
       <c r="B98">
-        <v>0.2147537719014445</v>
+        <v>0.214754</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="F98">
-        <v>2.931431763997239e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3112,11 +3112,11 @@
         </is>
       </c>
       <c r="B99">
-        <v>0.2330368402972002</v>
+        <v>0.233037</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="F99">
-        <v>3.936853509856064e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3140,11 +3140,11 @@
         </is>
       </c>
       <c r="B100">
-        <v>0.2395116451631931</v>
+        <v>0.239512</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3158,7 +3158,7 @@
         </is>
       </c>
       <c r="F100">
-        <v>9.28391807875073e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3168,11 +3168,11 @@
         </is>
       </c>
       <c r="B101">
-        <v>0.2599024757936709</v>
+        <v>0.259902</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="F101">
-        <v>2.179867508722566e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3196,11 +3196,11 @@
         </is>
       </c>
       <c r="B102">
-        <v>0.350251601491476</v>
+        <v>0.350252</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="F102">
-        <v>0.0002298769795955335</v>
+        <v>0.00023</v>
       </c>
     </row>
     <row r="103">
@@ -3224,11 +3224,11 @@
         </is>
       </c>
       <c r="B103">
-        <v>0.3800702814107763</v>
+        <v>0.38007</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="F103">
-        <v>0.001070235060823155</v>
+        <v>0.00107</v>
       </c>
     </row>
     <row r="104">
@@ -3252,11 +3252,11 @@
         </is>
       </c>
       <c r="B104">
-        <v>0.4621654882249174</v>
+        <v>0.462165</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="F104">
-        <v>0.02239713406066546</v>
+        <v>0.022397</v>
       </c>
     </row>
     <row r="105">
@@ -3280,11 +3280,11 @@
         </is>
       </c>
       <c r="B105">
-        <v>0.2294331932021304</v>
+        <v>0.229433</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="F105">
-        <v>0.006090444611649204</v>
+        <v>0.00609</v>
       </c>
     </row>
     <row r="106">
@@ -3308,11 +3308,11 @@
         </is>
       </c>
       <c r="B106">
-        <v>0.2362563890502848</v>
+        <v>0.236256</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="F106">
-        <v>1.4063767148631e-06</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="107">
@@ -3336,11 +3336,11 @@
         </is>
       </c>
       <c r="B107">
-        <v>0.217327733317068</v>
+        <v>0.217328</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="F107">
-        <v>6.7390537594747e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3364,11 +3364,11 @@
         </is>
       </c>
       <c r="B108">
-        <v>0.2289355057150057</v>
+        <v>0.228936</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="F108">
-        <v>8.026912468039882e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3392,11 +3392,11 @@
         </is>
       </c>
       <c r="B109">
-        <v>4.494286892007766</v>
+        <v>4.494287</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="F109">
-        <v>0.01272331784718428</v>
+        <v>0.012723</v>
       </c>
     </row>
     <row r="110">
@@ -3420,11 +3420,11 @@
         </is>
       </c>
       <c r="B110">
-        <v>0.2291218568483455</v>
+        <v>0.229122</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="F110">
-        <v>7.05201516459919e-05</v>
+        <v>7.1e-05</v>
       </c>
     </row>
     <row r="111">
@@ -3448,11 +3448,11 @@
         </is>
       </c>
       <c r="B111">
-        <v>0.2107648136095503</v>
+        <v>0.210765</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="F111">
-        <v>5.18994790477123e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3476,11 +3476,11 @@
         </is>
       </c>
       <c r="B112">
-        <v>0.2220220514619513</v>
+        <v>0.222022</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="F112">
-        <v>6.514524419909407e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3504,11 +3504,11 @@
         </is>
       </c>
       <c r="B113">
-        <v>0.3894911480269857</v>
+        <v>0.389491</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="F113">
-        <v>0.007362622590172507</v>
+        <v>0.007363</v>
       </c>
     </row>
     <row r="114">
@@ -3532,11 +3532,11 @@
         </is>
       </c>
       <c r="B114">
-        <v>0.4102944046031387</v>
+        <v>0.410294</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="F114">
-        <v>0.01063365156703999</v>
+        <v>0.010634</v>
       </c>
     </row>
     <row r="115">
@@ -3560,11 +3560,11 @@
         </is>
       </c>
       <c r="B115">
-        <v>0.3747218249452662</v>
+        <v>0.374722</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3578,7 +3578,7 @@
         </is>
       </c>
       <c r="F115">
-        <v>0.04068644938058397</v>
+        <v>0.040686</v>
       </c>
     </row>
     <row r="116">
@@ -3588,11 +3588,11 @@
         </is>
       </c>
       <c r="B116">
-        <v>0.1991742277363697</v>
+        <v>0.199174</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="F116">
-        <v>2.131171317198977e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3616,11 +3616,11 @@
         </is>
       </c>
       <c r="B117">
-        <v>0.2148089107902736</v>
+        <v>0.214809</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="F117">
-        <v>4.971485774163398e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3644,11 +3644,11 @@
         </is>
       </c>
       <c r="B118">
-        <v>0.2653836884509022</v>
+        <v>0.265384</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="F118">
-        <v>4.588647174053051e-05</v>
+        <v>4.6e-05</v>
       </c>
     </row>
     <row r="119">
@@ -3672,11 +3672,11 @@
         </is>
       </c>
       <c r="B119">
-        <v>0.3856718544193669</v>
+        <v>0.385672</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="F119">
-        <v>0.03864739521454608</v>
+        <v>0.038647</v>
       </c>
     </row>
     <row r="120">
@@ -3700,11 +3700,11 @@
         </is>
       </c>
       <c r="B120">
-        <v>0.4273318697760372</v>
+        <v>0.427332</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="F120">
-        <v>0.03209436889135298</v>
+        <v>0.032094</v>
       </c>
     </row>
     <row r="121">
@@ -3728,11 +3728,11 @@
         </is>
       </c>
       <c r="B121">
-        <v>0.3780054153100134</v>
+        <v>0.378005</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="F121">
-        <v>0.0001474346586732844</v>
+        <v>0.000147</v>
       </c>
     </row>
     <row r="122">
@@ -3756,11 +3756,11 @@
         </is>
       </c>
       <c r="B122">
-        <v>0.3364109138673744</v>
+        <v>0.336411</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3774,7 +3774,7 @@
         </is>
       </c>
       <c r="F122">
-        <v>0.0124045313961636</v>
+        <v>0.012405</v>
       </c>
     </row>
     <row r="123">
@@ -3784,11 +3784,11 @@
         </is>
       </c>
       <c r="B123">
-        <v>0.270946224978784</v>
+        <v>0.270946</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="F123">
-        <v>1.613525823240813e-05</v>
+        <v>1.6e-05</v>
       </c>
     </row>
     <row r="124">
@@ -3812,11 +3812,11 @@
         </is>
       </c>
       <c r="B124">
-        <v>0.3852171542991163</v>
+        <v>0.385217</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3830,7 +3830,7 @@
         </is>
       </c>
       <c r="F124">
-        <v>0.0002431208861615186</v>
+        <v>0.000243</v>
       </c>
     </row>
     <row r="125">
@@ -3840,11 +3840,11 @@
         </is>
       </c>
       <c r="B125">
-        <v>3.512537304520328</v>
+        <v>3.512537</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="F125">
-        <v>0.001585917258747016</v>
+        <v>0.001586</v>
       </c>
     </row>
     <row r="126">
@@ -3868,11 +3868,11 @@
         </is>
       </c>
       <c r="B126">
-        <v>5.578750940289785</v>
+        <v>5.578751</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="F126">
-        <v>0.01331027759688408</v>
+        <v>0.01331</v>
       </c>
     </row>
     <row r="127">
@@ -3896,11 +3896,11 @@
         </is>
       </c>
       <c r="B127">
-        <v>9.546602063009617</v>
+        <v>9.546602</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="F127">
-        <v>0.0001250582834613212</v>
+        <v>0.000125</v>
       </c>
     </row>
     <row r="128">
@@ -3924,11 +3924,11 @@
         </is>
       </c>
       <c r="B128">
-        <v>0.1453152281858125</v>
+        <v>0.145315</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="F128">
-        <v>0.002414637545232412</v>
+        <v>0.002415</v>
       </c>
     </row>
     <row r="129">
@@ -3952,11 +3952,11 @@
         </is>
       </c>
       <c r="B129">
-        <v>0.1770345702965941</v>
+        <v>0.177035</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="F129">
-        <v>0.008554604997539905</v>
+        <v>0.008555</v>
       </c>
     </row>
     <row r="130">
@@ -3980,11 +3980,11 @@
         </is>
       </c>
       <c r="B130">
-        <v>0.3281762417413326</v>
+        <v>0.328176</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3998,7 +3998,7 @@
         </is>
       </c>
       <c r="F130">
-        <v>0.04772600461089027</v>
+        <v>0.047726</v>
       </c>
     </row>
     <row r="131">
@@ -4008,11 +4008,11 @@
         </is>
       </c>
       <c r="B131">
-        <v>0.08491790697144189</v>
+        <v>0.08491799999999999</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="F131">
-        <v>7.807141467752743e-06</v>
+        <v>8e-06</v>
       </c>
     </row>
     <row r="132">
@@ -4036,11 +4036,11 @@
         </is>
       </c>
       <c r="B132">
-        <v>10.53260821142896</v>
+        <v>10.532608</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="F132">
-        <v>0.01850404509802395</v>
+        <v>0.018504</v>
       </c>
     </row>
     <row r="133">
@@ -4064,11 +4064,11 @@
         </is>
       </c>
       <c r="B133">
-        <v>17.0365339532958</v>
+        <v>17.036534</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="F133">
-        <v>0.000298934475185475</v>
+        <v>0.000299</v>
       </c>
     </row>
     <row r="134">
@@ -4092,11 +4092,11 @@
         </is>
       </c>
       <c r="B134">
-        <v>13.14087523165531</v>
+        <v>13.140875</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4110,7 +4110,7 @@
         </is>
       </c>
       <c r="F134">
-        <v>0.00190388890536064</v>
+        <v>0.001904</v>
       </c>
     </row>
     <row r="135">
@@ -4120,11 +4120,11 @@
         </is>
       </c>
       <c r="B135">
-        <v>5.065443929728319</v>
+        <v>5.065444</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="F135">
-        <v>0.0009162907578819102</v>
+        <v>0.000916</v>
       </c>
     </row>
     <row r="136">
@@ -4148,11 +4148,11 @@
         </is>
       </c>
       <c r="B136">
-        <v>3.907154287132943</v>
+        <v>3.907154</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="F136">
-        <v>0.01962809105548025</v>
+        <v>0.019628</v>
       </c>
     </row>
     <row r="137">
@@ -4176,11 +4176,11 @@
         </is>
       </c>
       <c r="B137">
-        <v>0.2236017092088018</v>
+        <v>0.223602</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="F137">
-        <v>0.003549755787218278</v>
+        <v>0.00355</v>
       </c>
     </row>
     <row r="138">
@@ -4204,11 +4204,11 @@
         </is>
       </c>
       <c r="B138">
-        <v>1.955528993911195</v>
+        <v>1.955529</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="F138">
-        <v>0.04578753566415983</v>
+        <v>0.045788</v>
       </c>
     </row>
     <row r="139">
@@ -4232,11 +4232,11 @@
         </is>
       </c>
       <c r="B139">
-        <v>0.3010927638012715</v>
+        <v>0.301093</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4250,7 +4250,7 @@
         </is>
       </c>
       <c r="F139">
-        <v>0.002310091569059924</v>
+        <v>0.00231</v>
       </c>
     </row>
     <row r="140">
@@ -4260,11 +4260,11 @@
         </is>
       </c>
       <c r="B140">
-        <v>0.3593001593608736</v>
+        <v>0.3593</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="F140">
-        <v>0.01245241974351563</v>
+        <v>0.012452</v>
       </c>
     </row>
     <row r="141">
@@ -4288,11 +4288,11 @@
         </is>
       </c>
       <c r="B141">
-        <v>0.2212720153449597</v>
+        <v>0.221272</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="F141">
-        <v>7.61805573811225e-05</v>
+        <v>7.6e-05</v>
       </c>
     </row>
     <row r="142">
@@ -4316,11 +4316,11 @@
         </is>
       </c>
       <c r="B142">
-        <v>0.2751409426403422</v>
+        <v>0.275141</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4334,7 +4334,7 @@
         </is>
       </c>
       <c r="F142">
-        <v>0.005022732282267794</v>
+        <v>0.005087</v>
       </c>
     </row>
     <row r="143">
@@ -4344,11 +4344,11 @@
         </is>
       </c>
       <c r="B143">
-        <v>0.2349233594372705</v>
+        <v>0.234923</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="F143">
-        <v>0.0009841697598176324</v>
+        <v>0.0009840000000000001</v>
       </c>
     </row>
     <row r="144">
@@ -4372,11 +4372,11 @@
         </is>
       </c>
       <c r="B144">
-        <v>0.346267310015921</v>
+        <v>0.346267</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="F144">
-        <v>0.002189404138910667</v>
+        <v>0.002189</v>
       </c>
     </row>
     <row r="145">
@@ -4400,11 +4400,11 @@
         </is>
       </c>
       <c r="B145">
-        <v>0.3676302202311006</v>
+        <v>0.36763</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="F145">
-        <v>0.0241875333604421</v>
+        <v>0.024188</v>
       </c>
     </row>
     <row r="146">
@@ -4428,11 +4428,11 @@
         </is>
       </c>
       <c r="B146">
-        <v>0.3218609661270382</v>
+        <v>0.321861</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="F146">
-        <v>0.007599164498668709</v>
+        <v>0.007599</v>
       </c>
     </row>
     <row r="147">
@@ -4456,11 +4456,11 @@
         </is>
       </c>
       <c r="B147">
-        <v>0.3430796358702379</v>
+        <v>0.34308</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="F147">
-        <v>0.01209503615363827</v>
+        <v>0.012095</v>
       </c>
     </row>
     <row r="148">
@@ -4484,11 +4484,11 @@
         </is>
       </c>
       <c r="B148">
-        <v>0.2803974788527577</v>
+        <v>0.280397</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="F148">
-        <v>0.000485466337381335</v>
+        <v>0.000485</v>
       </c>
     </row>
     <row r="149">
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="B149">
-        <v>0.3861096334485011</v>
+        <v>0.38611</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="F149">
-        <v>0.008400295728010376</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="150">
@@ -4540,11 +4540,11 @@
         </is>
       </c>
       <c r="B150">
-        <v>0.3521885651767807</v>
+        <v>0.352189</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4558,7 +4558,7 @@
         </is>
       </c>
       <c r="F150">
-        <v>0.007062093068158415</v>
+        <v>0.007062</v>
       </c>
     </row>
     <row r="151">
@@ -4568,11 +4568,11 @@
         </is>
       </c>
       <c r="B151">
-        <v>0.2824237168973072</v>
+        <v>0.282424</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="F151">
-        <v>0.0001587403447443902</v>
+        <v>0.000159</v>
       </c>
     </row>
     <row r="152">
@@ -4596,11 +4596,11 @@
         </is>
       </c>
       <c r="B152">
-        <v>0.2007210998902667</v>
+        <v>0.200721</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4614,7 +4614,7 @@
         </is>
       </c>
       <c r="F152">
-        <v>3.533795135179929e-06</v>
+        <v>4e-06</v>
       </c>
     </row>
     <row r="153">
@@ -4624,11 +4624,11 @@
         </is>
       </c>
       <c r="B153">
-        <v>0.1476187246398676</v>
+        <v>0.147619</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="F153">
-        <v>7.83807285742455e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -4652,11 +4652,11 @@
         </is>
       </c>
       <c r="B154">
-        <v>0.2239627783635833</v>
+        <v>0.223963</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4670,7 +4670,7 @@
         </is>
       </c>
       <c r="F154">
-        <v>2.59656137164832e-05</v>
+        <v>2.6e-05</v>
       </c>
     </row>
     <row r="155">
@@ -4680,11 +4680,11 @@
         </is>
       </c>
       <c r="B155">
-        <v>0.5226852980394123</v>
+        <v>0.522685</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="F155">
-        <v>0.04429301808017094</v>
+        <v>0.044293</v>
       </c>
     </row>
     <row r="156">
@@ -4708,11 +4708,11 @@
         </is>
       </c>
       <c r="B156">
-        <v>0.3967366029161338</v>
+        <v>0.396737</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="F156">
-        <v>0.0122541850481156</v>
+        <v>0.012254</v>
       </c>
     </row>
     <row r="157">
@@ -4736,11 +4736,11 @@
         </is>
       </c>
       <c r="B157">
-        <v>0.291776755769328</v>
+        <v>0.291777</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="F157">
-        <v>0.0001384859129205385</v>
+        <v>0.000138</v>
       </c>
     </row>
     <row r="158">
@@ -4764,11 +4764,11 @@
         </is>
       </c>
       <c r="B158">
-        <v>0.4426750945276965</v>
+        <v>0.442675</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="F158">
-        <v>0.04060470462187393</v>
+        <v>0.040605</v>
       </c>
     </row>
     <row r="159">
@@ -4792,11 +4792,11 @@
         </is>
       </c>
       <c r="B159">
-        <v>2.512005561999702</v>
+        <v>2.512006</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="F159">
-        <v>0.0008594549820677422</v>
+        <v>0.000859</v>
       </c>
     </row>
     <row r="160">
@@ -4820,11 +4820,11 @@
         </is>
       </c>
       <c r="B160">
-        <v>2.955681429396822</v>
+        <v>2.955681</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="F160">
-        <v>0.0002045683779231533</v>
+        <v>0.000205</v>
       </c>
     </row>
     <row r="161">
@@ -4848,11 +4848,11 @@
         </is>
       </c>
       <c r="B161">
-        <v>0.3043826790612327</v>
+        <v>0.304383</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="F161">
-        <v>1.934916048740298e-05</v>
+        <v>1.9e-05</v>
       </c>
     </row>
     <row r="162">
@@ -4876,11 +4876,11 @@
         </is>
       </c>
       <c r="B162">
-        <v>0.466115156357566</v>
+        <v>0.466115</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4894,7 +4894,7 @@
         </is>
       </c>
       <c r="F162">
-        <v>0.03836009001365359</v>
+        <v>0.03836</v>
       </c>
     </row>
     <row r="163">
@@ -4904,11 +4904,11 @@
         </is>
       </c>
       <c r="B163">
-        <v>0.2586919466940739</v>
+        <v>0.258692</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="F163">
-        <v>8.026625092583117e-06</v>
+        <v>8e-06</v>
       </c>
     </row>
     <row r="164">
@@ -4932,11 +4932,11 @@
         </is>
       </c>
       <c r="B164">
-        <v>0.3961468423684327</v>
+        <v>0.396147</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4950,7 +4950,7 @@
         </is>
       </c>
       <c r="F164">
-        <v>0.01053746679846446</v>
+        <v>0.010537</v>
       </c>
     </row>
     <row r="165">
@@ -4960,11 +4960,11 @@
         </is>
       </c>
       <c r="B165">
-        <v>2.453379062014423</v>
+        <v>2.453379</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="F165">
-        <v>0.00375830355236817</v>
+        <v>0.003758</v>
       </c>
     </row>
     <row r="166">
@@ -4988,11 +4988,11 @@
         </is>
       </c>
       <c r="B166">
-        <v>0.209339579390934</v>
+        <v>0.20934</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="F166">
-        <v>0.001643822159447916</v>
+        <v>0.001644</v>
       </c>
     </row>
     <row r="167">
@@ -5016,11 +5016,11 @@
         </is>
       </c>
       <c r="B167">
-        <v>0.2217913256159005</v>
+        <v>0.221791</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5034,7 +5034,7 @@
         </is>
       </c>
       <c r="F167">
-        <v>0.001951828088452401</v>
+        <v>0.001952</v>
       </c>
     </row>
     <row r="168">
@@ -5044,11 +5044,11 @@
         </is>
       </c>
       <c r="B168">
-        <v>0.3605478691980144</v>
+        <v>0.360548</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="F168">
-        <v>0.007464799711080161</v>
+        <v>0.007465</v>
       </c>
     </row>
     <row r="169">
@@ -5072,11 +5072,11 @@
         </is>
       </c>
       <c r="B169">
-        <v>0.1697186060304215</v>
+        <v>0.169719</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5090,7 +5090,7 @@
         </is>
       </c>
       <c r="F169">
-        <v>3.451800956177919e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -5100,11 +5100,11 @@
         </is>
       </c>
       <c r="B170">
-        <v>0.1798136535990391</v>
+        <v>0.179814</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="F170">
-        <v>3.183338925794033e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -5128,11 +5128,11 @@
         </is>
       </c>
       <c r="B171">
-        <v>0.2647843309656594</v>
+        <v>0.264784</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="F171">
-        <v>7.726841241728621e-06</v>
+        <v>8e-06</v>
       </c>
     </row>
     <row r="172">
@@ -5156,11 +5156,11 @@
         </is>
       </c>
       <c r="B172">
-        <v>0.4707241965066539</v>
+        <v>0.470724</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5174,7 +5174,7 @@
         </is>
       </c>
       <c r="F172">
-        <v>0.006567948440321381</v>
+        <v>0.006568</v>
       </c>
     </row>
     <row r="173">
@@ -5184,11 +5184,11 @@
         </is>
       </c>
       <c r="B173">
-        <v>0.4987233844954015</v>
+        <v>0.498723</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="F173">
-        <v>0.005398276046035377</v>
+        <v>0.005398</v>
       </c>
     </row>
     <row r="174">
@@ -5212,11 +5212,11 @@
         </is>
       </c>
       <c r="B174">
-        <v>0.3068627208364671</v>
+        <v>0.306863</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="F174">
-        <v>0.0001375638102738552</v>
+        <v>0.000138</v>
       </c>
     </row>
     <row r="175">
@@ -5240,11 +5240,11 @@
         </is>
       </c>
       <c r="B175">
-        <v>0.3251152497508531</v>
+        <v>0.325115</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5258,7 +5258,7 @@
         </is>
       </c>
       <c r="F175">
-        <v>0.0001135425193810047</v>
+        <v>0.000114</v>
       </c>
     </row>
     <row r="176">
@@ -5268,11 +5268,11 @@
         </is>
       </c>
       <c r="B176">
-        <v>0.4787479825306932</v>
+        <v>0.478748</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="F176">
-        <v>0.03503078985484986</v>
+        <v>0.035031</v>
       </c>
     </row>
     <row r="177">
@@ -5296,11 +5296,11 @@
         </is>
       </c>
       <c r="B177">
-        <v>0.2494182426337637</v>
+        <v>0.249418</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="F177">
-        <v>5.332948305181162e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -5324,11 +5324,11 @@
         </is>
       </c>
       <c r="B178">
-        <v>0.3276310938215871</v>
+        <v>0.327631</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="F178">
-        <v>0.0001272048669436199</v>
+        <v>0.000127</v>
       </c>
     </row>
     <row r="179">
@@ -5352,11 +5352,11 @@
         </is>
       </c>
       <c r="B179">
-        <v>0.4554760430879458</v>
+        <v>0.455476</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5370,7 +5370,7 @@
         </is>
       </c>
       <c r="F179">
-        <v>0.04802826835649998</v>
+        <v>0.048028</v>
       </c>
     </row>
     <row r="180">
@@ -5380,11 +5380,11 @@
         </is>
       </c>
       <c r="B180">
-        <v>0.2248216582725361</v>
+        <v>0.224822</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5398,7 +5398,7 @@
         </is>
       </c>
       <c r="F180">
-        <v>4.485985583002616e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -5408,11 +5408,11 @@
         </is>
       </c>
       <c r="B181">
-        <v>0.2953214850558126</v>
+        <v>0.295321</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="F181">
-        <v>4.235010374631365e-05</v>
+        <v>4.2e-05</v>
       </c>
     </row>
     <row r="182">
@@ -5436,11 +5436,11 @@
         </is>
       </c>
       <c r="B182">
-        <v>0.4526578956362032</v>
+        <v>0.452658</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5454,7 +5454,7 @@
         </is>
       </c>
       <c r="F182">
-        <v>0.008860214282801926</v>
+        <v>0.00886</v>
       </c>
     </row>
     <row r="183">
@@ -5464,11 +5464,11 @@
         </is>
       </c>
       <c r="B183">
-        <v>0.427000174677323</v>
+        <v>0.427</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="F183">
-        <v>0.005252889160148211</v>
+        <v>0.005253</v>
       </c>
     </row>
     <row r="184">
@@ -5492,11 +5492,11 @@
         </is>
       </c>
       <c r="B184">
-        <v>18.68040160625176</v>
+        <v>18.680402</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5510,7 +5510,7 @@
         </is>
       </c>
       <c r="F184">
-        <v>2.186339552867622e-05</v>
+        <v>2.2e-05</v>
       </c>
     </row>
     <row r="185">
@@ -5520,11 +5520,11 @@
         </is>
       </c>
       <c r="B185">
-        <v>17.4770912892913</v>
+        <v>17.477091</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="F185">
-        <v>3.209035083817646e-05</v>
+        <v>3.2e-05</v>
       </c>
     </row>
     <row r="186">
@@ -5548,11 +5548,11 @@
         </is>
       </c>
       <c r="B186">
-        <v>27.46427515399141</v>
+        <v>27.464275</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="F186">
-        <v>0.0001174515184224623</v>
+        <v>0.000117</v>
       </c>
     </row>
     <row r="187">
@@ -5576,11 +5576,11 @@
         </is>
       </c>
       <c r="B187">
-        <v>27.80413413584787</v>
+        <v>27.804134</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5594,7 +5594,7 @@
         </is>
       </c>
       <c r="F187">
-        <v>5.888788085173235e-05</v>
+        <v>5.9e-05</v>
       </c>
     </row>
     <row r="188">
@@ -5604,11 +5604,11 @@
         </is>
       </c>
       <c r="B188">
-        <v>22.70586616358414</v>
+        <v>22.705866</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="F188">
-        <v>1.110567371398474e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5632,11 +5632,11 @@
         </is>
       </c>
       <c r="B189">
-        <v>3.437504639650198</v>
+        <v>3.437505</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="F189">
-        <v>0.02240815394424833</v>
+        <v>0.022408</v>
       </c>
     </row>
     <row r="190">
@@ -5660,11 +5660,11 @@
         </is>
       </c>
       <c r="B190">
-        <v>13.69705262799907</v>
+        <v>13.697053</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5678,7 +5678,7 @@
         </is>
       </c>
       <c r="F190">
-        <v>3.075317778211684e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -5688,11 +5688,11 @@
         </is>
       </c>
       <c r="B191">
-        <v>16.87498312044529</v>
+        <v>16.874983</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5716,11 +5716,11 @@
         </is>
       </c>
       <c r="B192">
-        <v>2.274510258390951</v>
+        <v>2.27451</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="F192">
-        <v>0.01975139698405493</v>
+        <v>0.019751</v>
       </c>
     </row>
     <row r="193">
@@ -5744,11 +5744,11 @@
         </is>
       </c>
       <c r="B193">
-        <v>10.83584153361965</v>
+        <v>10.835842</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="F193">
-        <v>2.320366121466577e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -5772,11 +5772,11 @@
         </is>
       </c>
       <c r="B194">
-        <v>5.386645461775048</v>
+        <v>5.386645</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="F194">
-        <v>4.397027186797686e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -5800,11 +5800,11 @@
         </is>
       </c>
       <c r="B195">
-        <v>4.909079372809951</v>
+        <v>4.909079</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5818,7 +5818,7 @@
         </is>
       </c>
       <c r="F195">
-        <v>0.00446862610583787</v>
+        <v>0.004469</v>
       </c>
     </row>
     <row r="196">
@@ -5828,11 +5828,11 @@
         </is>
       </c>
       <c r="B196">
-        <v>0.16605837183844</v>
+        <v>0.166058</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="F196">
-        <v>7.291107418017084e-05</v>
+        <v>7.3e-05</v>
       </c>
     </row>
     <row r="197">
@@ -5856,11 +5856,11 @@
         </is>
       </c>
       <c r="B197">
-        <v>0.1347859279121419</v>
+        <v>0.134786</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5874,7 +5874,7 @@
         </is>
       </c>
       <c r="F197">
-        <v>3.853309116230719e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -5884,11 +5884,11 @@
         </is>
       </c>
       <c r="B198">
-        <v>0.3192089392521364</v>
+        <v>0.319209</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="F198">
-        <v>0.005074383195474708</v>
+        <v>0.005074</v>
       </c>
     </row>
     <row r="199">
@@ -5912,11 +5912,11 @@
         </is>
       </c>
       <c r="B199">
-        <v>4.764032825811571</v>
+        <v>4.764033</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5930,7 +5930,7 @@
         </is>
       </c>
       <c r="F199">
-        <v>0.0003805912239713827</v>
+        <v>0.000381</v>
       </c>
     </row>
     <row r="200">
@@ -5940,11 +5940,11 @@
         </is>
       </c>
       <c r="B200">
-        <v>0.1899970498335435</v>
+        <v>0.189997</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5958,7 +5958,7 @@
         </is>
       </c>
       <c r="F200">
-        <v>0.002747890085719851</v>
+        <v>0.002748</v>
       </c>
     </row>
     <row r="201">
@@ -5968,11 +5968,11 @@
         </is>
       </c>
       <c r="B201">
-        <v>0.2000796327489745</v>
+        <v>0.20008</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="F201">
-        <v>0.002865752684020229</v>
+        <v>0.002866</v>
       </c>
     </row>
     <row r="202">
@@ -5996,11 +5996,11 @@
         </is>
       </c>
       <c r="B202">
-        <v>0.3464656380612067</v>
+        <v>0.346466</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6014,7 +6014,7 @@
         </is>
       </c>
       <c r="F202">
-        <v>0.0001965875307914366</v>
+        <v>0.000197</v>
       </c>
     </row>
     <row r="203">
@@ -6024,11 +6024,11 @@
         </is>
       </c>
       <c r="B203">
-        <v>0.3648515473485366</v>
+        <v>0.364852</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="F203">
-        <v>2.043037140497805e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="204">
@@ -6052,11 +6052,11 @@
         </is>
       </c>
       <c r="B204">
-        <v>0.3173104337077917</v>
+        <v>0.31731</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="F204">
-        <v>0.000869010901013989</v>
+        <v>0.000869</v>
       </c>
     </row>
     <row r="205">
@@ -6080,11 +6080,11 @@
         </is>
       </c>
       <c r="B205">
-        <v>0.4705230948419281</v>
+        <v>0.470523</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6098,7 +6098,7 @@
         </is>
       </c>
       <c r="F205">
-        <v>0.001797968339818046</v>
+        <v>0.001798</v>
       </c>
     </row>
     <row r="206">
@@ -6108,11 +6108,11 @@
         </is>
       </c>
       <c r="B206">
-        <v>0.2632963040899827</v>
+        <v>0.263296</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6126,7 +6126,7 @@
         </is>
       </c>
       <c r="F206">
-        <v>7.589309312217019e-06</v>
+        <v>8e-06</v>
       </c>
     </row>
     <row r="207">
@@ -6136,11 +6136,11 @@
         </is>
       </c>
       <c r="B207">
-        <v>0.3984905358928017</v>
+        <v>0.398491</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6154,7 +6154,7 @@
         </is>
       </c>
       <c r="F207">
-        <v>0.0422257089914857</v>
+        <v>0.042226</v>
       </c>
     </row>
     <row r="208">
@@ -6164,11 +6164,11 @@
         </is>
       </c>
       <c r="B208">
-        <v>0.3118717102062629</v>
+        <v>0.311872</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="F208">
-        <v>0.007868322694354779</v>
+        <v>0.007868</v>
       </c>
     </row>
     <row r="209">
@@ -6192,11 +6192,11 @@
         </is>
       </c>
       <c r="B209">
-        <v>0.3608676584171861</v>
+        <v>0.360868</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="F209">
-        <v>0.0005099722952393027</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="210">
@@ -6220,11 +6220,11 @@
         </is>
       </c>
       <c r="B210">
-        <v>0.4029106656066381</v>
+        <v>0.402911</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="F210">
-        <v>0.02106018557851608</v>
+        <v>0.02106</v>
       </c>
     </row>
     <row r="211">
@@ -6248,11 +6248,11 @@
         </is>
       </c>
       <c r="B211">
-        <v>2.229971785798071</v>
+        <v>2.229972</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6266,7 +6266,7 @@
         </is>
       </c>
       <c r="F211">
-        <v>0.02637903741609604</v>
+        <v>0.026379</v>
       </c>
     </row>
     <row r="212">
@@ -6276,11 +6276,11 @@
         </is>
       </c>
       <c r="B212">
-        <v>0.2954953789973071</v>
+        <v>0.295495</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6294,7 +6294,7 @@
         </is>
       </c>
       <c r="F212">
-        <v>0.005694228379775401</v>
+        <v>0.005694</v>
       </c>
     </row>
     <row r="213">
@@ -6304,11 +6304,11 @@
         </is>
       </c>
       <c r="B213">
-        <v>0.2566805761355097</v>
+        <v>0.256681</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="F213">
-        <v>0.0002639742327298356</v>
+        <v>0.000264</v>
       </c>
     </row>
     <row r="214">
@@ -6332,11 +6332,11 @@
         </is>
       </c>
       <c r="B214">
-        <v>0.3886823165648713</v>
+        <v>0.388682</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6350,7 +6350,7 @@
         </is>
       </c>
       <c r="F214">
-        <v>0.04951487925213371</v>
+        <v>0.049515</v>
       </c>
     </row>
     <row r="215">
@@ -6360,11 +6360,11 @@
         </is>
       </c>
       <c r="B215">
-        <v>0.1465501356211801</v>
+        <v>0.14655</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="F215">
-        <v>2.680926602938172e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -6388,11 +6388,11 @@
         </is>
       </c>
       <c r="B216">
-        <v>0.2615982408994693</v>
+        <v>0.261598</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6406,7 +6406,7 @@
         </is>
       </c>
       <c r="F216">
-        <v>3.491039000225182e-05</v>
+        <v>3.5e-05</v>
       </c>
     </row>
     <row r="217">
@@ -6416,11 +6416,11 @@
         </is>
       </c>
       <c r="B217">
-        <v>0.1523415363656917</v>
+        <v>0.152342</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6434,7 +6434,7 @@
         </is>
       </c>
       <c r="F217">
-        <v>2.9288759750834e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -6444,11 +6444,11 @@
         </is>
       </c>
       <c r="B218">
-        <v>0.3770434860952075</v>
+        <v>0.377043</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="F218">
-        <v>0.02922532201352923</v>
+        <v>0.029225</v>
       </c>
     </row>
     <row r="219">
@@ -6472,11 +6472,11 @@
         </is>
       </c>
       <c r="B219">
-        <v>0.3919435741560571</v>
+        <v>0.391944</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="F219">
-        <v>0.02514583885063826</v>
+        <v>0.025146</v>
       </c>
     </row>
     <row r="220">
@@ -6500,11 +6500,11 @@
         </is>
       </c>
       <c r="B220">
-        <v>0.296601438675356</v>
+        <v>0.296601</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="F220">
-        <v>0.0006059131334364976</v>
+        <v>0.000606</v>
       </c>
     </row>
     <row r="221">
@@ -6528,11 +6528,11 @@
         </is>
       </c>
       <c r="B221">
-        <v>0.3232161881642008</v>
+        <v>0.323216</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="F221">
-        <v>0.001284912685833084</v>
+        <v>0.001285</v>
       </c>
     </row>
     <row r="222">
@@ -6556,11 +6556,11 @@
         </is>
       </c>
       <c r="B222">
-        <v>0.4627387968555803</v>
+        <v>0.462739</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6574,7 +6574,7 @@
         </is>
       </c>
       <c r="F222">
-        <v>0.04304908208520664</v>
+        <v>0.043049</v>
       </c>
     </row>
     <row r="223">
@@ -6584,11 +6584,11 @@
         </is>
       </c>
       <c r="B223">
-        <v>0.3378519785111354</v>
+        <v>0.337852</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="F223">
-        <v>0.01906027347513317</v>
+        <v>0.01906</v>
       </c>
     </row>
     <row r="224">
@@ -6612,11 +6612,11 @@
         </is>
       </c>
       <c r="B224">
-        <v>0.1453177850841168</v>
+        <v>0.145318</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="F224">
-        <v>2.886299022009098e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -6640,11 +6640,11 @@
         </is>
       </c>
       <c r="B225">
-        <v>0.1583574940739333</v>
+        <v>0.158357</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="F225">
-        <v>3.074937748870354e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -6668,11 +6668,11 @@
         </is>
       </c>
       <c r="B226">
-        <v>0.2267156131536633</v>
+        <v>0.226716</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6686,7 +6686,7 @@
         </is>
       </c>
       <c r="F226">
-        <v>1.301048878243893e-05</v>
+        <v>1.3e-05</v>
       </c>
     </row>
     <row r="227">
@@ -6696,11 +6696,11 @@
         </is>
       </c>
       <c r="B227">
-        <v>0.4301226404667251</v>
+        <v>0.430123</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6714,7 +6714,7 @@
         </is>
       </c>
       <c r="F227">
-        <v>0.009267420735168286</v>
+        <v>0.009266999999999999</v>
       </c>
     </row>
     <row r="228">
@@ -6724,11 +6724,11 @@
         </is>
       </c>
       <c r="B228">
-        <v>0.468718563590457</v>
+        <v>0.468719</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F228">
-        <v>0.01951748553250943</v>
+        <v>0.019517</v>
       </c>
     </row>
     <row r="229">
@@ -6752,11 +6752,11 @@
         </is>
       </c>
       <c r="B229">
-        <v>0.2594677375156814</v>
+        <v>0.259468</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6770,7 +6770,7 @@
         </is>
       </c>
       <c r="F229">
-        <v>0.0001893456610925215</v>
+        <v>0.000189</v>
       </c>
     </row>
     <row r="230">
@@ -6780,11 +6780,11 @@
         </is>
       </c>
       <c r="B230">
-        <v>0.2827503920613181</v>
+        <v>0.28275</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6798,7 +6798,7 @@
         </is>
       </c>
       <c r="F230">
-        <v>0.000406358820491004</v>
+        <v>0.000406</v>
       </c>
     </row>
     <row r="231">
@@ -6808,11 +6808,11 @@
         </is>
       </c>
       <c r="B231">
-        <v>0.4048051459799676</v>
+        <v>0.404805</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="F231">
-        <v>0.01487105734524652</v>
+        <v>0.014871</v>
       </c>
     </row>
     <row r="232">
@@ -6836,11 +6836,11 @@
         </is>
       </c>
       <c r="B232">
-        <v>0.2173580947015375</v>
+        <v>0.217358</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6854,7 +6854,7 @@
         </is>
       </c>
       <c r="F232">
-        <v>7.170264149092276e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -6864,11 +6864,11 @@
         </is>
       </c>
       <c r="B233">
-        <v>0.3015294480403788</v>
+        <v>0.301529</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="F233">
-        <v>0.0003140408072971335</v>
+        <v>0.000314</v>
       </c>
     </row>
     <row r="234">
@@ -6892,11 +6892,11 @@
         </is>
       </c>
       <c r="B234">
-        <v>0.465535206791643</v>
+        <v>0.465535</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6910,7 +6910,7 @@
         </is>
       </c>
       <c r="F234">
-        <v>0.02818150194934876</v>
+        <v>0.028182</v>
       </c>
     </row>
     <row r="235">
@@ -6920,11 +6920,11 @@
         </is>
       </c>
       <c r="B235">
-        <v>0.4308278121936704</v>
+        <v>0.430828</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6938,7 +6938,7 @@
         </is>
       </c>
       <c r="F235">
-        <v>0.01436324478655104</v>
+        <v>0.014363</v>
       </c>
     </row>
     <row r="236">
@@ -6948,11 +6948,11 @@
         </is>
       </c>
       <c r="B236">
-        <v>0.203406296608714</v>
+        <v>0.203406</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6966,7 +6966,7 @@
         </is>
       </c>
       <c r="F236">
-        <v>5.132605451763084e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -6976,11 +6976,11 @@
         </is>
       </c>
       <c r="B237">
-        <v>0.2821748526484911</v>
+        <v>0.282175</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="F237">
-        <v>1.217849475898536e-05</v>
+        <v>1.2e-05</v>
       </c>
     </row>
     <row r="238">
@@ -7004,11 +7004,11 @@
         </is>
       </c>
       <c r="B238">
-        <v>0.4369299972187741</v>
+        <v>0.43693</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="F238">
-        <v>0.00908646798719448</v>
+        <v>0.009086</v>
       </c>
     </row>
     <row r="239">
@@ -7032,11 +7032,11 @@
         </is>
       </c>
       <c r="B239">
-        <v>0.3746607673439424</v>
+        <v>0.374661</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7050,7 +7050,7 @@
         </is>
       </c>
       <c r="F239">
-        <v>0.02304709622382073</v>
+        <v>0.023047</v>
       </c>
     </row>
     <row r="240">
@@ -7060,11 +7060,11 @@
         </is>
       </c>
       <c r="B240">
-        <v>0.472128982511641</v>
+        <v>0.472129</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7078,7 +7078,7 @@
         </is>
       </c>
       <c r="F240">
-        <v>0.0369488191650541</v>
+        <v>0.036949</v>
       </c>
     </row>
     <row r="241">
@@ -7088,11 +7088,11 @@
         </is>
       </c>
       <c r="B241">
-        <v>6.2451669231518</v>
+        <v>6.245167</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="F241">
-        <v>1.601043808641123e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -7116,11 +7116,11 @@
         </is>
       </c>
       <c r="B242">
-        <v>8.240249992332366</v>
+        <v>8.24025</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -7134,7 +7134,7 @@
         </is>
       </c>
       <c r="F242">
-        <v>0.004648322252788994</v>
+        <v>0.004648</v>
       </c>
     </row>
     <row r="243">
@@ -7144,11 +7144,11 @@
         </is>
       </c>
       <c r="B243">
-        <v>3.843242989213419</v>
+        <v>3.843243</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="F243">
-        <v>0.0001904157370111736</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="244">
@@ -7172,11 +7172,11 @@
         </is>
       </c>
       <c r="B244">
-        <v>0.2652476659956496</v>
+        <v>0.265248</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7190,7 +7190,7 @@
         </is>
       </c>
       <c r="F244">
-        <v>5.730855224816978e-07</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="245">
@@ -7200,11 +7200,11 @@
         </is>
       </c>
       <c r="B245">
-        <v>0.2010273901472227</v>
+        <v>0.201027</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7218,7 +7218,7 @@
         </is>
       </c>
       <c r="F245">
-        <v>0.04231751098457592</v>
+        <v>0.042318</v>
       </c>
     </row>
     <row r="246">
@@ -7228,11 +7228,11 @@
         </is>
       </c>
       <c r="B246">
-        <v>2.320076054164619</v>
+        <v>2.320076</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="F246">
-        <v>0.002804259100393169</v>
+        <v>0.002804</v>
       </c>
     </row>
     <row r="247">
@@ -7256,11 +7256,11 @@
         </is>
       </c>
       <c r="B247">
-        <v>0.2273660296732993</v>
+        <v>0.227366</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7274,7 +7274,7 @@
         </is>
       </c>
       <c r="F247">
-        <v>0.004321011673404707</v>
+        <v>0.004321</v>
       </c>
     </row>
     <row r="248">
@@ -7284,11 +7284,11 @@
         </is>
       </c>
       <c r="B248">
-        <v>0.3413859466655187</v>
+        <v>0.341386</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="F248">
-        <v>0.03384860624781716</v>
+        <v>0.033849</v>
       </c>
     </row>
     <row r="249">
@@ -7312,11 +7312,11 @@
         </is>
       </c>
       <c r="B249">
-        <v>0.2598545879700158</v>
+        <v>0.259855</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7330,7 +7330,7 @@
         </is>
       </c>
       <c r="F249">
-        <v>0.01044188806211399</v>
+        <v>0.010442</v>
       </c>
     </row>
     <row r="250">
@@ -7340,11 +7340,11 @@
         </is>
       </c>
       <c r="B250">
-        <v>0.4403195471904652</v>
+        <v>0.44032</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="F250">
-        <v>0.0270506744091269</v>
+        <v>0.027051</v>
       </c>
     </row>
     <row r="251">
@@ -7368,11 +7368,11 @@
         </is>
       </c>
       <c r="B251">
-        <v>0.2834768388337127</v>
+        <v>0.283477</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7386,7 +7386,7 @@
         </is>
       </c>
       <c r="F251">
-        <v>0.001578743713422259</v>
+        <v>0.001579</v>
       </c>
     </row>
     <row r="252">
@@ -7396,11 +7396,11 @@
         </is>
       </c>
       <c r="B252">
-        <v>0.425635303224721</v>
+        <v>0.425635</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7414,7 +7414,7 @@
         </is>
       </c>
       <c r="F252">
-        <v>0.01200071400075797</v>
+        <v>0.012001</v>
       </c>
     </row>
     <row r="253">
@@ -7424,11 +7424,11 @@
         </is>
       </c>
       <c r="B253">
-        <v>0.2139036267426445</v>
+        <v>0.213904</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7442,7 +7442,7 @@
         </is>
       </c>
       <c r="F253">
-        <v>0.004254177805666948</v>
+        <v>0.004254</v>
       </c>
     </row>
     <row r="254">
@@ -7452,11 +7452,11 @@
         </is>
       </c>
       <c r="B254">
-        <v>0.1722244580391088</v>
+        <v>0.172224</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7470,7 +7470,7 @@
         </is>
       </c>
       <c r="F254">
-        <v>0.0002895660894275398</v>
+        <v>0.00029</v>
       </c>
     </row>
     <row r="255">
@@ -7480,11 +7480,11 @@
         </is>
       </c>
       <c r="B255">
-        <v>0.2700924946948557</v>
+        <v>0.270092</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="F255">
-        <v>0.001668676282531645</v>
+        <v>0.001669</v>
       </c>
     </row>
     <row r="256">
@@ -7508,11 +7508,11 @@
         </is>
       </c>
       <c r="B256">
-        <v>0.2174649127161279</v>
+        <v>0.217465</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="F256">
-        <v>3.409492604489195e-05</v>
+        <v>3.4e-05</v>
       </c>
     </row>
     <row r="257">
@@ -7536,11 +7536,11 @@
         </is>
       </c>
       <c r="B257">
-        <v>0.2632602684253509</v>
+        <v>0.26326</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7554,7 +7554,7 @@
         </is>
       </c>
       <c r="F257">
-        <v>0.02607629682868429</v>
+        <v>0.026076</v>
       </c>
     </row>
     <row r="258">
@@ -7564,11 +7564,11 @@
         </is>
       </c>
       <c r="B258">
-        <v>0.4303646654816687</v>
+        <v>0.430365</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="F258">
-        <v>0.03987996365315016</v>
+        <v>0.03988</v>
       </c>
     </row>
     <row r="259">
@@ -7592,11 +7592,11 @@
         </is>
       </c>
       <c r="B259">
-        <v>0.3465080157847838</v>
+        <v>0.346508</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7610,7 +7610,7 @@
         </is>
       </c>
       <c r="F259">
-        <v>0.001159986747607533</v>
+        <v>0.00116</v>
       </c>
     </row>
     <row r="260">
@@ -7620,11 +7620,11 @@
         </is>
       </c>
       <c r="B260">
-        <v>0.3772159398111155</v>
+        <v>0.377216</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7638,7 +7638,7 @@
         </is>
       </c>
       <c r="F260">
-        <v>0.008726895507105481</v>
+        <v>0.008727</v>
       </c>
     </row>
     <row r="261">
@@ -7648,11 +7648,11 @@
         </is>
       </c>
       <c r="B261">
-        <v>7.682602810179101</v>
+        <v>7.682603</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="F261">
-        <v>3.840244444663909e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -7676,11 +7676,11 @@
         </is>
       </c>
       <c r="B262">
-        <v>3.824774805422765</v>
+        <v>3.824775</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -7694,7 +7694,7 @@
         </is>
       </c>
       <c r="F262">
-        <v>0.001132111749079012</v>
+        <v>0.001132</v>
       </c>
     </row>
     <row r="263">
@@ -7704,11 +7704,11 @@
         </is>
       </c>
       <c r="B263">
-        <v>5.541570352904875</v>
+        <v>5.54157</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="F263">
-        <v>0.0001447859616906522</v>
+        <v>0.000145</v>
       </c>
     </row>
     <row r="264">
@@ -7732,11 +7732,11 @@
         </is>
       </c>
       <c r="B264">
-        <v>2.629940651463053</v>
+        <v>2.629941</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="F264">
-        <v>0.02557247653266825</v>
+        <v>0.025572</v>
       </c>
     </row>
     <row r="265">
@@ -7760,11 +7760,11 @@
         </is>
       </c>
       <c r="B265">
-        <v>3.860558503265621</v>
+        <v>3.860559</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7778,7 +7778,7 @@
         </is>
       </c>
       <c r="F265">
-        <v>7.502799369007995e-06</v>
+        <v>8e-06</v>
       </c>
     </row>
     <row r="266">
@@ -7788,11 +7788,11 @@
         </is>
       </c>
       <c r="B266">
-        <v>13.50102770199726</v>
+        <v>13.501028</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7816,11 +7816,11 @@
         </is>
       </c>
       <c r="B267">
-        <v>16.20100426501539</v>
+        <v>16.201004</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7844,11 +7844,11 @@
         </is>
       </c>
       <c r="B268">
-        <v>3.96725074093836</v>
+        <v>3.967251</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7862,7 +7862,7 @@
         </is>
       </c>
       <c r="F268">
-        <v>0.002580121146480097</v>
+        <v>0.00258</v>
       </c>
     </row>
     <row r="269">
@@ -7872,11 +7872,11 @@
         </is>
       </c>
       <c r="B269">
-        <v>7.094983510689665</v>
+        <v>7.094984</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7890,7 +7890,7 @@
         </is>
       </c>
       <c r="F269">
-        <v>1.312925931751252e-06</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="270">
@@ -7900,11 +7900,11 @@
         </is>
       </c>
       <c r="B270">
-        <v>3.497169565122981</v>
+        <v>3.49717</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7918,7 +7918,7 @@
         </is>
       </c>
       <c r="F270">
-        <v>5.610843909342744e-05</v>
+        <v>5.6e-05</v>
       </c>
     </row>
     <row r="271">
@@ -7928,11 +7928,11 @@
         </is>
       </c>
       <c r="B271">
-        <v>4.196544166164316</v>
+        <v>4.196544</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="F271">
-        <v>5.030581209219953e-05</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="272">
@@ -7956,11 +7956,11 @@
         </is>
       </c>
       <c r="B272">
-        <v>0.1576505260764065</v>
+        <v>0.157651</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7974,7 +7974,7 @@
         </is>
       </c>
       <c r="F272">
-        <v>8.642531135194531e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -7984,11 +7984,11 @@
         </is>
       </c>
       <c r="B273">
-        <v>0.293848055755894</v>
+        <v>0.293848</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="F273">
-        <v>0.01313489685014546</v>
+        <v>0.013135</v>
       </c>
     </row>
     <row r="274">
@@ -8012,11 +8012,11 @@
         </is>
       </c>
       <c r="B274">
-        <v>0.1313772951957176</v>
+        <v>0.131377</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -8030,7 +8030,7 @@
         </is>
       </c>
       <c r="F274">
-        <v>1.901271362569901e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -8040,11 +8040,11 @@
         </is>
       </c>
       <c r="B275">
-        <v>0.2448768407218608</v>
+        <v>0.244877</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -8058,7 +8058,7 @@
         </is>
       </c>
       <c r="F275">
-        <v>0.005972355095988813</v>
+        <v>0.005972</v>
       </c>
     </row>
     <row r="276">
@@ -8068,11 +8068,11 @@
         </is>
       </c>
       <c r="B276">
-        <v>3.333413099603947</v>
+        <v>3.333413</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="F276">
-        <v>0.00508768074242083</v>
+        <v>0.005088</v>
       </c>
     </row>
     <row r="277">
@@ -8096,11 +8096,11 @@
         </is>
       </c>
       <c r="B277">
-        <v>0.2042777688647937</v>
+        <v>0.204278</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -8114,7 +8114,7 @@
         </is>
       </c>
       <c r="F277">
-        <v>0.0009512313273063455</v>
+        <v>0.000951</v>
       </c>
     </row>
     <row r="278">
@@ -8124,11 +8124,11 @@
         </is>
       </c>
       <c r="B278">
-        <v>0.3185606267841085</v>
+        <v>0.318561</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="F278">
-        <v>0.008897773963965183</v>
+        <v>0.008898</v>
       </c>
     </row>
     <row r="279">
@@ -8152,11 +8152,11 @@
         </is>
       </c>
       <c r="B279">
-        <v>0.250965995020677</v>
+        <v>0.250966</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -8170,7 +8170,7 @@
         </is>
       </c>
       <c r="F279">
-        <v>4.322801285960853e-05</v>
+        <v>4.3e-05</v>
       </c>
     </row>
     <row r="280">
@@ -8180,11 +8180,11 @@
         </is>
       </c>
       <c r="B280">
-        <v>0.5309400947091361</v>
+        <v>0.53094</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="F280">
-        <v>0.03755529073039743</v>
+        <v>0.037555</v>
       </c>
     </row>
     <row r="281">
@@ -8208,11 +8208,11 @@
         </is>
       </c>
       <c r="B281">
-        <v>0.3447440845838042</v>
+        <v>0.344744</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="F281">
-        <v>0.03622894878545124</v>
+        <v>0.036229</v>
       </c>
     </row>
     <row r="282">
@@ -8236,11 +8236,11 @@
         </is>
       </c>
       <c r="B282">
-        <v>2.118081233578009</v>
+        <v>2.118081</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="F282">
-        <v>0.005829553564987267</v>
+        <v>0.00583</v>
       </c>
     </row>
     <row r="283">
@@ -8264,11 +8264,11 @@
         </is>
       </c>
       <c r="B283">
-        <v>0.3415831403986443</v>
+        <v>0.341583</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="F283">
-        <v>0.006461635132612664</v>
+        <v>0.006462</v>
       </c>
     </row>
     <row r="284">
@@ -8292,11 +8292,11 @@
         </is>
       </c>
       <c r="B284">
-        <v>0.3560949463296677</v>
+        <v>0.356095</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8310,7 +8310,7 @@
         </is>
       </c>
       <c r="F284">
-        <v>0.001115695159406904</v>
+        <v>0.001116</v>
       </c>
     </row>
     <row r="285">
@@ -8320,11 +8320,11 @@
         </is>
       </c>
       <c r="B285">
-        <v>0.4034471008625753</v>
+        <v>0.398074</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8338,21 +8338,21 @@
         </is>
       </c>
       <c r="F285">
-        <v>0.02009648515935925</v>
+        <v>0.039951</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>3 / 4</t>
         </is>
       </c>
       <c r="B286">
-        <v>0.3107627833435974</v>
+        <v>0.378174</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8366,7 +8366,7 @@
         </is>
       </c>
       <c r="F286">
-        <v>0.03145259451718152</v>
+        <v>0.001258</v>
       </c>
     </row>
     <row r="287">
@@ -8376,11 +8376,11 @@
         </is>
       </c>
       <c r="B287">
-        <v>0.2076665489188955</v>
+        <v>0.403447</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8394,21 +8394,21 @@
         </is>
       </c>
       <c r="F287">
-        <v>4.76335213182022e-05</v>
+        <v>0.02203</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B288">
-        <v>0.155554889151643</v>
+        <v>0.310763</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8422,21 +8422,21 @@
         </is>
       </c>
       <c r="F288">
-        <v>3.417781124781527e-08</v>
+        <v>0.031027</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>0 / 4</t>
         </is>
       </c>
       <c r="B289">
-        <v>0.1846798642400124</v>
+        <v>0.207667</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8450,21 +8450,21 @@
         </is>
       </c>
       <c r="F289">
-        <v>6.798545581365723e-05</v>
+        <v>6.1e-05</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1 / 4</t>
+          <t>0 / 6</t>
         </is>
       </c>
       <c r="B290">
-        <v>0.1025579989520865</v>
+        <v>0.155555</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8478,21 +8478,21 @@
         </is>
       </c>
       <c r="F290">
-        <v>3.714674901011961e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>1 / 6</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B291">
-        <v>0.07682218557422439</v>
+        <v>0.18468</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -8506,21 +8506,21 @@
         </is>
       </c>
       <c r="F291">
-        <v>2.576827640154988e-13</v>
+        <v>8.8e-05</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>1 / 8</t>
+          <t>1 / 4</t>
         </is>
       </c>
       <c r="B292">
-        <v>0.09120581731531481</v>
+        <v>0.102558</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8534,21 +8534,21 @@
         </is>
       </c>
       <c r="F292">
-        <v>7.733142459720455e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2 / 4</t>
+          <t>1 / 6</t>
         </is>
       </c>
       <c r="B293">
-        <v>0.1538308935930194</v>
+        <v>0.076822</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -8562,21 +8562,21 @@
         </is>
       </c>
       <c r="F293">
-        <v>2.591944863628015e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2 / 6</t>
+          <t>1 / 8</t>
         </is>
       </c>
       <c r="B294">
-        <v>0.1152287054681392</v>
+        <v>0.091206</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8590,21 +8590,21 @@
         </is>
       </c>
       <c r="F294">
-        <v>4.659451713351359e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2 / 8</t>
+          <t>2 / 4</t>
         </is>
       </c>
       <c r="B295">
-        <v>0.1368032968842468</v>
+        <v>0.153831</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8618,21 +8618,21 @@
         </is>
       </c>
       <c r="F295">
-        <v>4.823163880729453e-06</v>
+        <v>3e-06</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>2 / 6</t>
         </is>
       </c>
       <c r="B296">
-        <v>0.2542527373153609</v>
+        <v>0.115229</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -8646,21 +8646,21 @@
         </is>
       </c>
       <c r="F296">
-        <v>4.68789673746528e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>1 / 8</t>
+          <t>2 / 8</t>
         </is>
       </c>
       <c r="B297">
-        <v>0.1879760882487862</v>
+        <v>0.136803</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -8674,21 +8674,21 @@
         </is>
       </c>
       <c r="F297">
-        <v>0.003494830242245062</v>
+        <v>5e-06</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2 / 8</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B298">
-        <v>0.2276415140190043</v>
+        <v>0.254253</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -8702,21 +8702,21 @@
         </is>
       </c>
       <c r="F298">
-        <v>0.006197112494281232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>3 / 6</t>
+          <t>1 / 8</t>
         </is>
       </c>
       <c r="B299">
-        <v>0.214107793759135</v>
+        <v>0.187976</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8730,21 +8730,21 @@
         </is>
       </c>
       <c r="F299">
-        <v>0.003945634450770119</v>
+        <v>0.003089</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>2 / 8</t>
         </is>
       </c>
       <c r="B300">
-        <v>0.1119545841594412</v>
+        <v>0.227642</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -8758,35 +8758,91 @@
         </is>
       </c>
       <c r="F300">
-        <v>2.798898512956782e-07</v>
+        <v>0.006051</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
+          <t>3 / 6</t>
+        </is>
+      </c>
+      <c r="B301">
+        <v>0.214108</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>TNFa</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>NTD</t>
+        </is>
+      </c>
+      <c r="F301">
+        <v>0.004074</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>3 / 8</t>
+        </is>
+      </c>
+      <c r="B302">
+        <v>0.111955</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>TNFa</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>NTD</t>
+        </is>
+      </c>
+      <c r="F302">
+        <v>3e-06</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
           <t>4 / 8</t>
         </is>
       </c>
-      <c r="B301">
-        <v>0.3871285543343874</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>TNFa</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
+      <c r="B303">
+        <v>0.387129</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>TNFa</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
         <is>
           <t>NTD</t>
         </is>
       </c>
-      <c r="F301">
-        <v>0.01165856047995062</v>
+      <c r="F303">
+        <v>0.011551</v>
       </c>
     </row>
   </sheetData>
